--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(O)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(O).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(O)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(O).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oci
-Ocimum - fam. Lamiacées
+          <t>Oci</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ocimum - fam. Lamiacées
 Ocimum basilicum - Basilic
 </t>
         </is>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odo
-Odontites - fam. Scrophulariacées
+          <t>Odo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odontites - fam. Scrophulariacées
 Odontites jaubertiana - Odontitès de Jaubert
 Odontites lutea - Odontite jaune
 Odontites verna
@@ -563,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,8 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oen
-Oenanthe - fam. Composées
+          <t>Oen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oenanthe - fam. Composées
 Oenanthe aquatica - Œnanthe aquatique
 Oenanthe crocata -  Œnanthe safranée
 Oenanthe fistulosa - Œnanthe fistuleuse
@@ -619,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,8 +666,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ole
-Olea - fam. Oléacées
+          <t>Ole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea - fam. Oléacées
 Olea europaea - Olivier
 Olearia
 Olearia haastii
@@ -655,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,13 +707,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oma
-Omalotheca - fam. Composées
+          <t>Oma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Omalotheca - fam. Composées
 Omalotheca norvegica
 Omalotheca supina
-Omalotheca sylvatica
-Omp
-Omphalodes voir Cynoglossum - Boraginacées
+Omalotheca sylvatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Om</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Omp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omphalodes voir Cynoglossum - Boraginacées
 Omphalodes littoralis - Cynoglosse des dunes
 Omphalodes scorpioides
 Omphalodes verna
@@ -689,34 +760,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>On</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ono
-Onobrychis - fam. Fabacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ono</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onobrychis - fam. Fabacées
 Onobrychis vicifolia - Sainfoin
 Onoclea
 Onoclea sensibilis - Onoclée sensible
@@ -743,34 +819,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Op</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oph
-Ophioglossum
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oph</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ophioglossum
 Ophioglossum lusitanicum - Ophioglosse du Portugal
 Ophioglossum vulgatum - Ophioglosse commun ou Ophioglosse vulgaire ou « Herbe sans couture »
 Ophiopogon
@@ -801,9 +882,43 @@
 Ophrys lutea - Ophrys jaune
 Ophrys scolopax - Ophrys bécasse
 Ophrys speculum - Ophrys miroir
-Ophrys sphegodes - Ophrys araignée
-Opu
-Opuntia - fam. Cactacées (Cactus, 220 espèces)
+Ophrys sphegodes - Ophrys araignée</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Op</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Opu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opuntia - fam. Cactacées (Cactus, 220 espèces)
 Opuntia ficus-indica - Figuier de Barbarie, ou Cactus raquette
 Opuntia inermis
 Opuntia microdasys - Cactus raquette ou « Oponce »
@@ -811,34 +926,39 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Or</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Orc
-Orchis - fam. Orchidacées
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Orc</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Orchis - fam. Orchidacées
 Orchis caucasica - Orchis du Caucase
 Orchis galilaea - Orchis de Galilée
 Orchis italica - Orchis d'Italie
@@ -850,22 +970,158 @@
 Orchis purpurea - Orchis pourpre
 Orchis simia - Orchis singe
 Orchis stevenii - Orchis de Steven
-Orchis ustulata - Orchis brûlé
-Ori
-Origanum - fam. Lamiacées
+Orchis ustulata - Orchis brûlé</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ori</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Origanum - fam. Lamiacées
 Origanum majorana - Marjolaine
-Origanum vulgare - Origan ou Marjolaine sauvage
-Orl
-Orlaya - fam. Composées
-Orlaya grandiflora
-Orm
-Ormenis
+Origanum vulgare - Origan ou Marjolaine sauvage</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Orl</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Orlaya - fam. Composées
+Orlaya grandiflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Orm</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ormenis
 Ormenis mixta - Camomille mixte
 Ormenis nobilis - Camomille romaine
 Ormenis praecox - Camomille brunâtre
-Ormosia
-Orn
-Ornithogalum - fam. Hyacinthacées
+Ormosia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Orn</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ornithogalum - fam. Hyacinthacées
 Ornithogalum arabicum ou Ornithogalum corymbosum - Ornithogale d'Arabie
 Ornithogalum pyrenaicum - Ornithogale des Pyrénées
 Ornithogalum umbellatum - Ornithogale en ombelle ou « Dame de onze heures »
@@ -873,48 +1129,121 @@
 Ornithopus compressus
 Ornithopus perpusillus
 Ornithopus pinnatus
-Ornithopus sativa - Ornithope cultivé
-Oro
-Orobanche - fam. Orobanchacées
+Ornithopus sativa - Ornithope cultivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Oro</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Orobanche - fam. Orobanchacées
 Orobanche major - Orobanche jaune
 Orobanche ramosa - Orobanche rameuse
-Orobanche uniflora
-Ort
-Orthilia - fam. Éricacées
+Orobanche uniflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ort</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Orthilia - fam. Éricacées
 Orthilia secunda - Pyrole
 Orthisiphon - fam. Lamiacées
 Orthisiphon stamineus - Orthosiphon</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Os</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osm
-Osmanthus
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Osm</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Osmanthus
 Osmanthus delavayi
 Osmanthus fragans
 Osmanthus heterophyllus
@@ -922,9 +1251,43 @@
 Osmanthus heterophyllus Variegatus
 Osmorhiza
 Osmorhiza berteroi
-Osmorhiza depauperata
-Ost
-Osteospermum
+Osmorhiza depauperata</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Os</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osteospermum
 Osteospermum ecklonis - Dimorphotheca, Marguerite
 Ostrya
 Ostrya carpinifolia
@@ -933,67 +1296,77 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Ot</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ota
-Otanthus - fam. Composées
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ota</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Otanthus - fam. Composées
 Otanthus maritimus  - Santoline maritime
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Ox</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxa
-Oxalis - fam. Oxalidacées
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Oxa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxalis - fam. Oxalidacées
 Oxalis acetosella - Oxalis petite oseille
 Oxalis cernua - Oxalis
 Oxalis deppei - Oxalis ou « Trèfle à 4 feuilles »
